--- a/DesignerConfigs/Datas/l10n/Demo.xlsx
+++ b/DesignerConfigs/Datas/l10n/Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\l10n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624929CA-7AD3-4761-A735-97B4C2AA5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E46337-3C20-4102-A26C-3DF9A79991D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-930" yWindow="810" windowWidth="29040" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统邮件数据表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>##</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>测试3</t>
-  </si>
-  <si>
-    <t>测试4</t>
   </si>
   <si>
     <t>测试5</t>
@@ -120,32 +117,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>demo/3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>demo/4</t>
     </r>
     <r>
       <rPr>
@@ -427,20 +398,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -716,7 +687,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,10 +702,10 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -742,10 +713,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -762,8 +733,8 @@
       <c r="B5">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -773,8 +744,8 @@
       <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -784,8 +755,8 @@
       <c r="B7">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -795,55 +766,50 @@
       <c r="B8">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>17</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/l10n/Demo.xlsx
+++ b/DesignerConfigs/Datas/l10n/Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\l10n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E46337-3C20-4102-A26C-3DF9A79991D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862149D-0A27-4A19-9136-87A5243A7957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30825" yWindow="2295" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统邮件数据表" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>##</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>是否导表</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>策划备注不导表</t>
@@ -241,6 +232,27 @@
   </si>
   <si>
     <t>测试8</t>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -266,12 +278,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -381,25 +395,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -408,10 +413,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,137 +699,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
